--- a/biology/Zoologie/Chersonesia/Chersonesia.xlsx
+++ b/biology/Zoologie/Chersonesia/Chersonesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chersonesia regroupe des papillons de la famille des Nymphalidae et de la sous-famille des Cyrestinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition des espèces du genre Chersonesia s'étend depuis l'Inde jusqu'à Bornéo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition des espèces du genre Chersonesia s'étend depuis l'Inde jusqu'à Bornéo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est très proche du genre Cyrestis dont il diffère par la nervation de l'aile antérieure dont seulement la première nervure subcostale prend naissance avant la terminaison de la cellule, la seconde prenant naissance entre l'apex de la cellule et la base de la troisième nervure subcostale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est très proche du genre Cyrestis dont il diffère par la nervation de l'aile antérieure dont seulement la première nervure subcostale prend naissance avant la terminaison de la cellule, la seconde prenant naissance entre l'apex de la cellule et la base de la troisième nervure subcostale.
 </t>
         </is>
       </c>
@@ -573,20 +589,91 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Chersonesia a été décrit par William Lucas Distant en 1883. Le nom de ce genre fait référence à la péninsule (Chersonèse) malaise[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chersonesia a été décrit par William Lucas Distant en 1883. Le nom de ce genre fait référence à la péninsule (Chersonèse) malaise.
 Ils se nomment Maplets en anglais.
-Publication originale
-Distant, W. L. 1883. Rhopalocera Malayana: a description of the butterflies of the Malay peninsula. London. (Chersonesia p.82)
-Liste des espèces
-Chersonesia excellens (Martin, 1903)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chersonesia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chersonesia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Distant, W. L. 1883. Rhopalocera Malayana: a description of the butterflies of the Malay peninsula. London. (Chersonesia p.82)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chersonesia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chersonesia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chersonesia excellens (Martin, 1903)
 Chersonesia intermedia Martin, 1895
 Chersonesia nicevillei Martin, 1895
 Chersonesia peraka Distant, 1884
-Chersonesia rahria (Moore, [1858])
-Chersonesia rahrioides Moore, [1899]
-Chersonesia risa (Doubleday, [1848])</t>
+Chersonesia rahria (Moore, )
+Chersonesia rahrioides Moore, 
+Chersonesia risa (Doubleday, )</t>
         </is>
       </c>
     </row>
